--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_38_7.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_38_7.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999974742208366</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991331124629751</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999868951836449</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999994151891837</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999933462865691</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G2" t="n">
-        <v>2.357703980125025e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008092014638476885</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I2" t="n">
-        <v>1.393459012992986e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J2" t="n">
-        <v>6.596091047440339e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K2" t="n">
-        <v>7.297099617336949e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L2" t="n">
-        <v>8.985857533411967e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00153548167690957</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000001836930301</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001600850310780868</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P2" t="n">
-        <v>139.9156446045374</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q2" t="n">
-        <v>209.3915666220249</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_1</t>
+          <t>model_38_7_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999974233071637</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991328255506039</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999866064420948</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999994004089634</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999931987092794</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G3" t="n">
-        <v>2.405229658983474e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008094692839521843</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I3" t="n">
-        <v>1.424161428395971e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J3" t="n">
-        <v>6.762797400906829e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K3" t="n">
-        <v>7.458947012025196e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L3" t="n">
-        <v>8.994872139571823e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M3" t="n">
-        <v>0.001550880285187569</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000001873958426</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001616904469692774</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P3" t="n">
-        <v>139.8757303333297</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q3" t="n">
-        <v>209.3516523508171</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_2</t>
+          <t>model_38_7_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999973767577862</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991325641449195</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999986345394944</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999993865168637</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999930650144504</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G4" t="n">
-        <v>2.448681459540272e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008097132946842413</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I4" t="n">
-        <v>1.451919047821603e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J4" t="n">
-        <v>6.919486626611658e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K4" t="n">
-        <v>7.605569570438596e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L4" t="n">
-        <v>9.001278580721119e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001564826335265442</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000001907812519</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001631444231994766</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P4" t="n">
-        <v>139.8399217161157</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q4" t="n">
-        <v>209.3158437336031</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_3</t>
+          <t>model_38_7_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999973339477181</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991323271588228</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999861072389817</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999993739613047</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999929431041581</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G5" t="n">
-        <v>2.488642779028918e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008099345108029965</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I5" t="n">
-        <v>1.47724260544819e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J5" t="n">
-        <v>7.061100989202029e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K5" t="n">
-        <v>7.739268076701054e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L5" t="n">
-        <v>9.008211049072675e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00157754327326667</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000001938947114</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001644702556374397</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P5" t="n">
-        <v>139.8075461295093</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q5" t="n">
-        <v>209.2834681469968</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_4</t>
+          <t>model_38_7_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999972945667508</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991321120025661</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999858896974708</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999999362657695</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F6" t="n">
-        <v>0.999992831831181</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G6" t="n">
-        <v>2.525403183348302e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008101353497243646</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I6" t="n">
-        <v>1.500374190878878e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J6" t="n">
-        <v>7.188594593506314e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K6" t="n">
-        <v>7.861300684069706e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L6" t="n">
-        <v>9.01431301094446e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001589151718165482</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000001967587818</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001656805196805345</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P6" t="n">
-        <v>139.7782196628206</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q6" t="n">
-        <v>209.254141680308</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_5</t>
+          <t>model_38_7_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999972591505104</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C7" t="n">
-        <v>0.999131918494196</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999856955839365</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999993522651432</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999927323841716</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G7" t="n">
-        <v>2.558462689107867e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008103159812937528</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I7" t="n">
-        <v>1.521014636861748e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J7" t="n">
-        <v>7.30581235874901e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K7" t="n">
-        <v>7.970363802246192e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L7" t="n">
-        <v>9.019862983802762e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001599519518201596</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000001993345083</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O7" t="n">
-        <v>0.001667614375553302</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P7" t="n">
-        <v>139.7522079838393</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q7" t="n">
-        <v>209.2281300013267</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_6</t>
+          <t>model_38_7_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999972265106229</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991317413632428</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999855176801368</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999993427439525</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999926412434381</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G8" t="n">
-        <v>2.588930591382556e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008104813252634991</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I8" t="n">
-        <v>1.539931472199811e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J8" t="n">
-        <v>7.413202029718979e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K8" t="n">
-        <v>8.070317462485006e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L8" t="n">
-        <v>9.025387283613379e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001609015410548499</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000002017083183</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001677514527696619</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P8" t="n">
-        <v>139.7285313331984</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q8" t="n">
-        <v>209.2044533506859</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_7</t>
+          <t>model_38_7_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999971969509517</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991315814503577</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999853573311531</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999993342594196</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999925591460527</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G9" t="n">
-        <v>2.616523246926442e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008106305969223157</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I9" t="n">
-        <v>1.556981671946694e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J9" t="n">
-        <v>7.508899220479172e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K9" t="n">
-        <v>8.16035332075743e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L9" t="n">
-        <v>9.029195803031742e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001617567076484447</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000002038581126</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O9" t="n">
-        <v>0.00168643025575585</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P9" t="n">
-        <v>139.707328252864</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q9" t="n">
-        <v>209.1832502703514</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_8</t>
+          <t>model_38_7_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999971702361755</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991314361709078</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999852131471506</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999993265892332</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999924853039293</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G10" t="n">
-        <v>2.641460317922643e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008107662089117864</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I10" t="n">
-        <v>1.572313019770078e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J10" t="n">
-        <v>7.59541138068619e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K10" t="n">
-        <v>8.241335667884701e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L10" t="n">
-        <v>9.033535142286108e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001625257000576414</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000002058010054</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001694447555836749</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P10" t="n">
-        <v>139.6883572860185</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q10" t="n">
-        <v>209.1642793035059</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_9</t>
+          <t>model_38_7_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999971458441502</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991313062225451</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999850819675145</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999993196263154</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999924181297938</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G11" t="n">
-        <v>2.664229202760353e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008108875100042926</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I11" t="n">
-        <v>1.586261589625603e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J11" t="n">
-        <v>7.673946248881647e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K11" t="n">
-        <v>8.3150052605721e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L11" t="n">
-        <v>9.035522505392769e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001632246673380085</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000002075749709</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001701734793482289</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P11" t="n">
-        <v>139.6711915438298</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q11" t="n">
-        <v>209.1471135613172</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_10</t>
+          <t>model_38_7_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999971235997803</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991311883249859</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999849628707963</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999993132586062</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999923571193201</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G12" t="n">
-        <v>2.684993345681045e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008109975622006973</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I12" t="n">
-        <v>1.598925360786219e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J12" t="n">
-        <v>7.745767746950335e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K12" t="n">
-        <v>8.381915191278609e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L12" t="n">
-        <v>9.039571234266798e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001638594930323246</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000002091927432</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001708353308866225</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P12" t="n">
-        <v>139.6556646166752</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q12" t="n">
-        <v>209.1315866341626</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_11</t>
+          <t>model_38_7_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999971038032923</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991310821395819</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999848571311438</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999993076446222</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999923029717063</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G13" t="n">
-        <v>2.703472498226148e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008110966816143146</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I13" t="n">
-        <v>1.610168850790255e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J13" t="n">
-        <v>7.809087967050632e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K13" t="n">
-        <v>8.441298652303808e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L13" t="n">
-        <v>9.042058988662508e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001644223980553181</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000002106324878</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001714221999418188</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P13" t="n">
-        <v>139.641947001663</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q13" t="n">
-        <v>209.1178690191504</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.999997085445849</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991309860954638</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999847594109562</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999993025731685</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999922529226029</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G14" t="n">
-        <v>2.720608365835237e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008111863345827903</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I14" t="n">
-        <v>1.620559616480616e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J14" t="n">
-        <v>7.866288979437335e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K14" t="n">
-        <v>8.496187294083744e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L14" t="n">
-        <v>9.045417230958946e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001649426677920312</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000002119675746</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001719646186383306</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P14" t="n">
-        <v>139.6293100775108</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q14" t="n">
-        <v>209.1052320949982</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_13</t>
+          <t>model_38_7_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999970689352676</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991308987036939</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999846717356585</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E15" t="n">
-        <v>0.999999297778511</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999922080217659</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G15" t="n">
-        <v>2.736020268807808e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008112679109639139</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I15" t="n">
-        <v>1.629882290716265e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J15" t="n">
-        <v>7.920368001607434e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K15" t="n">
-        <v>8.545429853661697e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L15" t="n">
-        <v>9.047422613606474e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M15" t="n">
-        <v>0.001654091977130597</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000002131683442</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001724510097039474</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P15" t="n">
-        <v>139.6180123000829</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q15" t="n">
-        <v>209.0939343175703</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_14</t>
+          <t>model_38_7_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999970540011179</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991308216459759</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999845928633894</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999992935716696</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F16" t="n">
-        <v>0.999992167476915</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G16" t="n">
-        <v>2.749960642048884e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008113398409612284</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I16" t="n">
-        <v>1.638268922885211e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J16" t="n">
-        <v>7.967817036582204e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K16" t="n">
-        <v>8.589895221605635e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L16" t="n">
-        <v>9.048338410773249e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M16" t="n">
-        <v>0.001658300528266479</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000002142544641</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O16" t="n">
-        <v>0.001728897814910112</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P16" t="n">
-        <v>139.6078479167409</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q16" t="n">
-        <v>209.0837699342283</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_15</t>
+          <t>model_38_7_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999970407316278</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991307509136416</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999845224591773</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999992898873511</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999921315447384</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G17" t="n">
-        <v>2.762347128577236e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008114058664904771</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I17" t="n">
-        <v>1.645755131095043e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J17" t="n">
-        <v>8.009372527758782e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K17" t="n">
-        <v>8.629301888980963e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L17" t="n">
-        <v>9.050524437255124e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M17" t="n">
-        <v>0.001662031025154836</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00000215219518</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0017327871267742</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P17" t="n">
-        <v>139.5988596614464</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q17" t="n">
-        <v>209.0747816789338</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_16</t>
+          <t>model_38_7_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999970285547896</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991306868225546</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999844582310388</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999992862932393</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F18" t="n">
-        <v>0.999992098612388</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G18" t="n">
-        <v>2.773713672602179e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008114656927069725</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I18" t="n">
-        <v>1.652584626158238e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J18" t="n">
-        <v>8.049910575058233e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K18" t="n">
-        <v>8.665418659544099e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L18" t="n">
-        <v>9.051649577784327e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M18" t="n">
-        <v>0.001665446988829779</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000002161051062</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O18" t="n">
-        <v>0.001736348515094805</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P18" t="n">
-        <v>139.590646919278</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q18" t="n">
-        <v>209.0665689367655</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_17</t>
+          <t>model_38_7_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.999997017500211</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991306301131141</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999843998030585</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999992833955746</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999920687974581</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G19" t="n">
-        <v>2.784032636461426e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008115186284804313</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I19" t="n">
-        <v>1.658797379810691e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J19" t="n">
-        <v>8.082593382768542e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K19" t="n">
-        <v>8.698116568191882e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L19" t="n">
-        <v>9.052978630200469e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M19" t="n">
-        <v>0.00166854206913144</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000002169090756</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O19" t="n">
-        <v>0.001739575359372607</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P19" t="n">
-        <v>139.5832201853879</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q19" t="n">
-        <v>209.0591422028753</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_18</t>
+          <t>model_38_7_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999970076466156</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991305788715815</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D20" t="n">
-        <v>0.999984347949547</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999992803578818</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999920422449867</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G20" t="n">
-        <v>2.793230535250577e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.000811566460201768</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I20" t="n">
-        <v>1.664311058208699e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J20" t="n">
-        <v>8.116855572914691e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K20" t="n">
-        <v>8.727236552192776e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L20" t="n">
-        <v>9.054830067120788e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M20" t="n">
-        <v>0.001671296064511186</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000002176257007</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O20" t="n">
-        <v>0.001742446598037224</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P20" t="n">
-        <v>139.576623468077</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q20" t="n">
-        <v>209.0525454855645</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_19</t>
+          <t>model_38_7_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999969983848975</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991305318226207</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D21" t="n">
-        <v>0.999984299489755</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999992778872433</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999920173347736</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G21" t="n">
-        <v>2.801875942510036e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008116103783415518</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I21" t="n">
-        <v>1.669463876243821e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J21" t="n">
-        <v>8.144721945870111e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K21" t="n">
-        <v>8.754555478512613e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L21" t="n">
-        <v>9.056544774660613e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001673880504250538</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000002182992802</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O21" t="n">
-        <v>0.001745141062726809</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P21" t="n">
-        <v>139.5704427713026</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q21" t="n">
-        <v>209.04636478879</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_20</t>
+          <t>model_38_7_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999969904928588</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C22" t="n">
-        <v>0.999130491223881</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999842583632841</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999992755175133</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999919961102083</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G22" t="n">
-        <v>2.80924281417929e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008116482754829819</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I22" t="n">
-        <v>1.673836928864277e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J22" t="n">
-        <v>8.171450169351333e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K22" t="n">
-        <v>8.7778323702451e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L22" t="n">
-        <v>9.057488829014115e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M22" t="n">
-        <v>0.001676079596612073</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000002188732466</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O22" t="n">
-        <v>0.001747433775002923</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P22" t="n">
-        <v>139.5651911441519</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q22" t="n">
-        <v>209.0411131616393</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_21</t>
+          <t>model_38_7_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999969830019627</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C23" t="n">
-        <v>0.999130452834209</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999842189367074</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999992734805012</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999919760179858</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G23" t="n">
-        <v>2.816235236891888e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008116841105566597</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I23" t="n">
-        <v>1.678029228634113e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J23" t="n">
-        <v>8.194425663096786e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K23" t="n">
-        <v>8.799867426325403e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L23" t="n">
-        <v>9.059525740920732e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M23" t="n">
-        <v>0.001678164246101045</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000002194180391</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O23" t="n">
-        <v>0.00174960717233646</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P23" t="n">
-        <v>139.5602191746586</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q23" t="n">
-        <v>209.0361411921461</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_22</t>
+          <t>model_38_7_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999969763070363</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991304201042286</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999841841006043</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999992717822933</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999919580624588</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G24" t="n">
-        <v>2.822484656789164e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.000811714662556661</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I24" t="n">
-        <v>1.681733414984978e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J24" t="n">
-        <v>8.213579779058406e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K24" t="n">
-        <v>8.819559177569104e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L24" t="n">
-        <v>9.060318134631797e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M24" t="n">
-        <v>0.001680025195284036</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000002199049428</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O24" t="n">
-        <v>0.001751547345978867</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P24" t="n">
-        <v>139.5557859539462</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q24" t="n">
-        <v>209.0317079714336</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_38_7_23</t>
+          <t>model_38_7_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999969703074916</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C25" t="n">
-        <v>0.999130387978331</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999841523198082</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999992700800846</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999919419746811</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G25" t="n">
-        <v>2.82808496844003e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008117446506719841</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I25" t="n">
-        <v>1.685112724977471e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J25" t="n">
-        <v>8.232779019293641e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K25" t="n">
-        <v>8.837202575852038e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L25" t="n">
-        <v>9.060258905203707e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M25" t="n">
-        <v>0.001681691103752419</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000002203412733</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O25" t="n">
-        <v>0.001753284175619655</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P25" t="n">
-        <v>139.5518215299281</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q25" t="n">
-        <v>209.0277435474155</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999969649961227</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991303613832965</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D26" t="n">
-        <v>0.999984124754406</v>
+        <v>0.9998147383833075</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999992686151358</v>
+        <v>0.9997934851912618</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999919277507882</v>
+        <v>0.9998341903495032</v>
       </c>
       <c r="G26" t="n">
-        <v>2.833042898210421e-06</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008117694759692366</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I26" t="n">
-        <v>1.688043804436463e-05</v>
+        <v>0.0002206355631893498</v>
       </c>
       <c r="J26" t="n">
-        <v>8.249302202890977e-07</v>
+        <v>0.0001571851393505272</v>
       </c>
       <c r="K26" t="n">
-        <v>8.852801859592732e-06</v>
+        <v>0.0001889103512242937</v>
       </c>
       <c r="L26" t="n">
-        <v>9.061681575205479e-05</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M26" t="n">
-        <v>0.001683164548762367</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000002207275547</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O26" t="n">
-        <v>0.001754820348234128</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P26" t="n">
-        <v>139.5483183898085</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q26" t="n">
-        <v>209.0242404072959</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
   </sheetData>
